--- a/importExcel.xlsx
+++ b/importExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\hrsv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B5A93-590D-4FF3-8301-4A636E8C2570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF542D-A23C-4AC0-AE68-F4D87682EA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -342,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>字段类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,6 +659,10 @@
   </si>
   <si>
     <t>Excel数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_down_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,74 +922,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1011,7 +941,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1270,7 +1200,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1544,10 +1474,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F392F326-4166-4495-8349-ABE1EF71AADE}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1679,28 +1609,84 @@
         <v>54</v>
       </c>
     </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{CB292E05-FEA9-4E1F-9C0A-9101AAFE7D68}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{CB292E05-FEA9-4E1F-9C0A-9101AAFE7D68}">
       <formula1>"全量卸数,增量卸数"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2" xr:uid="{81F5E323-FBB3-43C5-9693-D70917258430}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J3" xr:uid="{81F5E323-FBB3-43C5-9693-D70917258430}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{F89D3AAE-5F7D-4F8B-85AF-8BC73652290B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{F89D3AAE-5F7D-4F8B-85AF-8BC73652290B}">
       <formula1>"定长,CSV,非定长,SEQUENCEFILE,ORC,PARQUET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F2" xr:uid="{D8CA0961-D015-4597-B449-37491C2DD5ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F3" xr:uid="{D8CA0961-D015-4597-B449-37491C2DD5ED}">
       <formula1>"否,是"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{D6803866-1962-4B51-A87E-CE6A479970FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{D6803866-1962-4B51-A87E-CE6A479970FF}">
       <formula1>"\n,\r,\r\n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{A23C9F1E-FE70-4FCD-81CF-04C10ED39B6A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{A23C9F1E-FE70-4FCD-81CF-04C10ED39B6A}">
       <formula1>"UTF-8,GBK,UTF-16,GB2312,ISO-8859-1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{71BEB93B-8E79-41B0-9B0C-6371009F301B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{71BEB93B-8E79-41B0-9B0C-6371009F301B}">
       <formula1>"UTF-8,GBK,UTF-16,GB2312,ISO-88591-1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1716,7 +1702,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
